--- a/pmi/comments.xlsx
+++ b/pmi/comments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,319 +441,222 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>WHAT RESPONDENTS ARE SAYING</t>
+          <t>8/1/2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>2023-09-01</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2023-10-01</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Computer &amp; Electronic Products</t>
+          <t>Accommodation &amp; Food Services</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Further reductions in customer orders due to the economic situation and also their working down of own inventories. Backlog is dwindling, but still showing robust revenue.</t>
+          <t>Restaurant sales and traffic trends remain positive year over year and compared to pre-pandemic (levels). Hiring is stable, with quality employees available. New California regulations in July included (municipal) minimum wage hikes and implementation of Proposition 12 (a farm animal health and welfare legislation), resulting in much higher pork prices.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>In the evolving supply chain environment, customers are increasingly taking an active role in initiating new projects, looking for cost reduction opportunities and lead-time mitigation, with a growing emphasis on collaboration. Post-pandemic, customers have learned they need partners to navigate rough waters.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Markets remain tough, and we have focused more resources on sales and marketing to drive greater sales and new market penetration with our devices. Lots of leadership focus on what we can do in the near term that will also support long-term company goals.</t>
+          <t>Prices are coming down across the board for most commodities. However, there are still a few areas where supply is not available on a consistent basis, or what is being delivered is not to specifications.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chemical Products</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Demand still weak. Customer inventories are getting depleted; however, we are not seeing a real uptick in demand. General supply conditions are softening.</t>
+          <t>Sales on a national level have been strong. Commodity material prices remain stable, and we are finding areas for cost reductions. Material availability has returned to pre-COVID-19 levels.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>We need to coordinate very closely with suppliers in order to yield a more cost-competitive offer. More back and forth is needed to reach a reasonable total price.</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Economy absolutely slowing down. Less optimism regarding the first quarter of 2024.</t>
+          <t>Conditions remain favorable for mechanical contractors. New construction projects continue to launch. We are still seeing opportunities for cost reductions across many commodities. Inventory levels on finished goods remain strong.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Transportation Equipment</t>
+          <t>Health Care &amp; Social Assistance</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Still seeing a slowdown in orders. We're continuing to ship to max capacity, with supply constraints still a real part of our day-to-day business operations.</t>
+          <t>While labor costs continue to soften, costs of pharmaceuticals and supplies remain stubbornly high, negatively impacting operating margins. Supply chains are operating consistently, though some categories of supply remain constrained. Patient volumes and revenues were down slightly (for the month) but appear to be rebounding as back-to-school season approaches. Forecast remains cautiously optimistic.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Orders and production remain steady, and we are maintaining a healthy backlog. Continued inflation and wage adjustments continue to drive prices up, although we should get some relief from the markets stabilizing.</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Backlog is starting to dip a bit. We're hearing of cutbacks in 2024 ordering, but it's still very strong compared to historical averages.</t>
+          <t>I think the outlook of our company and the industry is a slow but steady improvement — from a plethora of unknowns to a daily sense of being able to manage the rigors of the supply chain.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Food, Beverage &amp; Tobacco Products</t>
+          <t>Management of Companies &amp; Support Services</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Customer orders have softened. This is likely due to customers' increased confidence in the supply chain, (which) has them reducing their inventories. Customers are also being pinched with higher interest rates. Additionally, consumers are feeling their purchasing power eroded by stubbornly high inflation, so they are purchasing less.</t>
+          <t>The supply chain challenges affect a portion of our buys, as they include products and components made outside of the U.S. and are subject to shipping delays and issues. The prices of materials and other products have slightly increased. Distribution of some direct materials has been altered due to a key supplier financial issue.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cost increases are now generally isolated to specific commodities rather than blanket increases due to 'inflation.'</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Markets appear to have slightly slowed. Certain commodities remain high.</t>
+          <t>Bank and leasing company volume seems to be falling as credit tightens, thus causing a slowdown in related services industries. Bankruptcy work is picking up.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fabricated Metal Products</t>
+          <t>Mining</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fourth quarter orders falling short of projection and indicating a slowdown in customer demand, though the first quarter forecast remains solid. Unclear if this is an inventory correction. Logistics stabilized and costs are matching 2019. Shortages limited to only a few items now, but suppliers are hesitant to add or replace labor needed in light of slowing demand.</t>
+          <t>Steady oil and gas production and sales volume. Declining commodity prices seem to have bottomed out.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>A slow fourth quarter, and we're clearly in a mild industry recession. However, demand is down less than 5 percent, and customer confidence of a recovery in the second half of 2024 is solid. Supplier deliveries are stable, and suppliers are seeking more work. But they're not yet willing to adjust prices to compete for it.</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Machinery</t>
+          <t>Professional, Scientific &amp; Technical Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>General slowdown in business at the end of the third quarter. For capital equipment additions, our customers are buying only what they need for specific jobs and not adding any capital fleet material for potential future work.</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Seeing a slowdown on bookings, and our backlog is down to five days from 15 weeks earlier this year.</t>
+          <t>The summer slowdown is similar to those in recent years due to vacations. Third-quarter projections are close to expectation. Inflationary costs are mostly in fuel and fuel-related commodities, having an adverse effect on profits.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>The fourth quarter is looking better than forecast, which is good because the third quarter of 2023 was below plan. Our customers are cautiously optimistic for a solid domestic performance, despite troubles in select foreign markets.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Electrical Equipment, Appliances &amp; Components</t>
+          <t>Public Administration</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>There is additional softening in the market. Customers are hesitant to provide extended forecasts with today's economic uncertainty.</t>
+          <t>Prices have settled. Warnings of a possible recession in 2024 are not being taken very seriously by top management. The same experts warned that the country would be in a recession by now. Our general feeling is that the (Federal Reserve's) strategy for taming inflation and building a soft landing for the economy is working better than expected. The city has proposed reducing its municipal tax for the fiscal year beginning October 1.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Miscellaneous Manufacturing</t>
+          <t>Real Estate, Rental &amp; Leasing</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Business continues to remain strong with sales and profits both ahead of plan. The bookings were below what we planned, but that was expected due to fewer working days and summer vacations.</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Overall, things continue to be very steady: Sales and revenue are as expected, and the supply environment has stabilized greatly versus 2021-22. Some things to watch include the Panama Canal (drought), U.S.-China relations, and the impact the UAW (United Auto Workers) strike could have on suppliers of ours who support automotive production. But overall conditions feel stable.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>Overall conditions seem quite good, although there is definite slowdown in residential construction driven by rapidly increasing interest rates.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Paper Products</t>
+          <t>Retail Trade</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>The manufacturing sector continues to be slow, and the low market prices make it difficult to stay profitable. On the positive side, laborers are showing enthusiastic employment interest. Rising energy and fuel prices are of concern to our company.</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+          <t>Business activity continues to be lower year over year, but we are meeting the year-to-date forecast.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Business is ramping up in preparation for the holiday season. Our supply chain is strong.</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Plastics &amp; Rubber Products</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Business is beginning to improve moderately. Still well below 2022 levels, but it appears that the 'great inventory rebalancing' is finally coming to fruition.</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Orders continue to increase in some sectors. Construction industry-related products/orders are slowing down.</t>
+          <t>Utility contractors in high demand.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Other than increases in fuel costs and some materials, activity and sales have been relatively stable month over month. However, a seasonal decrease in water sales is anticipated as cooler temperatures set in. Regional housing development projects continue to come online, in spite of higher interest rates.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Primary Metals</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Automotive volume remains strong in preparation for the United Auto Workers' potential strike at Ford, General Motors and Stellantis. Contingency plans in place for sub-tiers. Continue to have issues recruiting general labor employees. Operational efficiency suffering due to a lack of human resources. Order book remains strong and ahead of 2022.</t>
-        </is>
-      </c>
+          <t>Educational Services</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Business conditions and market demand remain strong. We are projected to be at capacity in the next 12 months.</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Despite the ongoing United Auto Workers (UAW) strike, there's a firmness and pickup in orders for the rest of the fourth quarter.</t>
+          <t>The market is stable at this time.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Wood Products</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>(The Federal Reserve's) actions to increase borrowing costs has dampened demand for residential investment. Recently, this slowdown plateaued somewhat, with demand stabilizing. The outlook for 2024 remains uncertain, and we continue to be cautious about building inventories.</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
+          <t>Information</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>The market for the industry keeps looking positive, although there is a higher concentration of new projects at emerging markets. Opportunities in traditional markets like the U.S. or Europe have decreased, and my organization has managed to maintain or renew contracts that started two or three years ago.</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Apparel, Leather &amp; Allied Products</t>
+          <t>Transportation &amp; Warehousing</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Markets remain soft. Our customers have about-right inventory levels, but they paid more due to pandemic cost increases. Everyone is holding off on increasing inventories, hoping they can buy at lower costs.</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>Higher level of orders in past month. Business activity is stabilizing to last year's numbers.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nonmetallic Mineral Products</t>
+          <t>Wholesale Trade</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cement negotiations have changed, with cement mills no longer offering annual or guaranteed pricing. We now want to contract more as a commodity, leaning toward quarterly, with fluctuating prices yet to be determined.</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Commercial constructions continue to remain ahead of 2022. We have some concern over 2024 regarding inflation, as well as gas and oil pricing potentially slowing down building.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Petroleum &amp; Coal Products</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>A recession feels imminent. Money continues to be pushed into the bank markets, driving inflation rates really high. Most plants are buying less material or reducing consumption in the name of sustainability, as well as running at 80 percent of capacity. Prices of some products may increase for the upcoming winter weather.</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Demand for raw materials/chemicals appears to be stable heading into the fourth quarter.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Textile Mills</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>New business development is coming onboard. However, many forecasts are set for the beginning of 2024. Hiring and retaining quality people is still a struggle.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Furniture &amp; Related Products</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Business is decent — not great, but steady and solid. We are meeting our sales and margin goals, but it's definitely hard to guess the future.</t>
+          <t>Suppliers' lead times are approaching 'normal.' Electronic equipment containing chips continues to be on allocation.</t>
         </is>
       </c>
     </row>
